--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268309.2482710467</v>
+        <v>269795.9844556229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5361938.291797786</v>
+        <v>5361938.291797789</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22043491.84780379</v>
+        <v>22043491.84780377</v>
       </c>
     </row>
     <row r="9">
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="V20" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="W20" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="S21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,46 +2254,46 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>22.45388007933153</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="R22" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="S22" t="n">
-        <v>22.45388007933153</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>49.4834113647894</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,70 +2400,70 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="X24" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G24" t="n">
+      <c r="Y24" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.45388007933152</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>7.521629433619523</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="W25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>43.5849887301065</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X26" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,20 +2631,20 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>49.4834113647894</v>
@@ -2710,31 +2710,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>7.521629433619516</v>
       </c>
       <c r="H28" t="n">
-        <v>7.521629433619523</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>14.93225064571201</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,73 +2871,73 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="R31" t="n">
         <v>49.4834113647894</v>
@@ -3004,7 +3004,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="U31" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="G32" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>49.4834113647894</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="V33" t="n">
         <v>49.4834113647894</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,11 +3229,11 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="V34" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="W34" t="n">
-        <v>22.45388007933152</v>
-      </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>49.4834113647894</v>
       </c>
       <c r="U35" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>49.4834113647894</v>
@@ -3405,7 +3405,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.521629433619523</v>
+      </c>
+      <c r="H37" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,49 +3506,49 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="E38" t="n">
-        <v>43.5849887301065</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="U38" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,64 +3582,64 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="T39" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="D39" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>43.5849887301065</v>
       </c>
       <c r="U39" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,17 +3658,17 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>22.45388007933152</v>
-      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C41" t="n">
         <v>49.4834113647894</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>43.5849887301065</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="U42" t="n">
+      <c r="Y42" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>43.5849887301065</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="X43" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C20" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
       <c r="D20" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
       <c r="E20" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="F20" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="G20" t="n">
         <v>3.958672909183152</v>
@@ -5756,13 +5756,13 @@
         <v>3.958672909183152</v>
       </c>
       <c r="L20" t="n">
-        <v>50.96791370573308</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M20" t="n">
-        <v>99.95649095687459</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N20" t="n">
-        <v>148.9450682080161</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="O20" t="n">
         <v>197.9336454591576</v>
@@ -5774,28 +5774,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R20" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S20" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T20" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U20" t="n">
-        <v>103.9251605148183</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V20" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W20" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="X20" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.958672909183152</v>
+        <v>147.95040165634</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="C21" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D21" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E21" t="n">
         <v>3.958672909183152</v>
@@ -5829,52 +5829,52 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J21" t="n">
-        <v>3.958672909183152</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="K21" t="n">
-        <v>3.958672909183152</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="L21" t="n">
-        <v>3.958672909183152</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="M21" t="n">
-        <v>3.958672909183152</v>
+        <v>108.2424477284631</v>
       </c>
       <c r="N21" t="n">
-        <v>52.94725016032466</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="O21" t="n">
-        <v>99.95649095687459</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P21" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q21" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R21" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S21" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T21" t="n">
-        <v>97.96715785352245</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U21" t="n">
-        <v>97.96715785352245</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V21" t="n">
-        <v>47.98391405070487</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W21" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="X21" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
     </row>
     <row r="22">
@@ -5887,19 +5887,19 @@
         <v>53.94191671200073</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H22" t="n">
         <v>3.958672909183152</v>
@@ -5929,16 +5929,16 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.605847463638</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="R22" t="n">
-        <v>76.62260366082046</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S22" t="n">
-        <v>53.94191671200073</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="T22" t="n">
-        <v>53.94191671200073</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="U22" t="n">
         <v>53.94191671200073</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="C23" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D23" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="E23" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F23" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G23" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H23" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="I23" t="n">
         <v>3.958672909183152</v>
@@ -5990,22 +5990,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K23" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L23" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M23" t="n">
-        <v>101.9358274114662</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="N23" t="n">
-        <v>150.9244046626077</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O23" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P23" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q23" t="n">
         <v>197.9336454591576</v>
@@ -6017,22 +6017,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T23" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="U23" t="n">
         <v>147.95040165634</v>
       </c>
-      <c r="U23" t="n">
-        <v>97.96715785352245</v>
-      </c>
       <c r="V23" t="n">
-        <v>97.96715785352245</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W23" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X23" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.98391405070487</v>
+        <v>147.95040165634</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>153.9084043176359</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="C24" t="n">
-        <v>153.9084043176359</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="D24" t="n">
-        <v>103.9251605148183</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="E24" t="n">
-        <v>103.9251605148183</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F24" t="n">
-        <v>53.94191671200073</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="G24" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="H24" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="I24" t="n">
         <v>3.958672909183152</v>
       </c>
       <c r="J24" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K24" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L24" t="n">
-        <v>10.26529322618006</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="M24" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="N24" t="n">
-        <v>108.2424477284631</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="O24" t="n">
-        <v>148.9450682080161</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="P24" t="n">
         <v>148.9450682080161</v>
@@ -6093,25 +6093,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S24" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T24" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U24" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V24" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W24" t="n">
-        <v>153.9084043176359</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X24" t="n">
-        <v>153.9084043176359</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="Y24" t="n">
-        <v>153.9084043176359</v>
+        <v>47.98391405070487</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.63935985800288</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="C25" t="n">
-        <v>26.63935985800288</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="D25" t="n">
-        <v>26.63935985800288</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="E25" t="n">
-        <v>26.63935985800288</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="F25" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="G25" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="H25" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="I25" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="J25" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="K25" t="n">
         <v>3.958672909183152</v>
@@ -6175,22 +6175,22 @@
         <v>176.5890912664556</v>
       </c>
       <c r="T25" t="n">
-        <v>176.5890912664556</v>
+        <v>168.9914857779511</v>
       </c>
       <c r="U25" t="n">
-        <v>176.5890912664556</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="V25" t="n">
-        <v>176.5890912664556</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="W25" t="n">
-        <v>126.605847463638</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="X25" t="n">
-        <v>76.62260366082046</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.63935985800288</v>
+        <v>69.02499817231589</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="C26" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="D26" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="E26" t="n">
+        <v>103.9251605148183</v>
+      </c>
+      <c r="F26" t="n">
+        <v>103.9251605148183</v>
+      </c>
+      <c r="G26" t="n">
         <v>53.94191671200073</v>
-      </c>
-      <c r="C26" t="n">
-        <v>53.94191671200073</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="H26" t="n">
         <v>3.958672909183152</v>
@@ -6227,22 +6227,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K26" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L26" t="n">
-        <v>3.958672909183152</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M26" t="n">
-        <v>52.94725016032466</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="N26" t="n">
-        <v>94.79569263938403</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O26" t="n">
-        <v>143.7842698905255</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P26" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q26" t="n">
         <v>197.9336454591576</v>
@@ -6263,13 +6263,13 @@
         <v>197.9336454591576</v>
       </c>
       <c r="W26" t="n">
-        <v>153.9084043176359</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X26" t="n">
-        <v>103.9251605148183</v>
+        <v>147.95040165634</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.94191671200073</v>
+        <v>147.95040165634</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="C27" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D27" t="n">
         <v>47.98391405070487</v>
       </c>
       <c r="E27" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F27" t="n">
         <v>3.958672909183152</v>
@@ -6303,19 +6303,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J27" t="n">
-        <v>3.958672909183152</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="K27" t="n">
-        <v>3.958672909183152</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="L27" t="n">
-        <v>52.94725016032466</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="M27" t="n">
-        <v>101.9358274114662</v>
+        <v>108.2424477284631</v>
       </c>
       <c r="N27" t="n">
-        <v>150.9244046626077</v>
+        <v>157.2310249796046</v>
       </c>
       <c r="O27" t="n">
         <v>197.9336454591576</v>
@@ -6330,7 +6330,7 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S27" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T27" t="n">
         <v>147.95040165634</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.62260366082046</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C28" t="n">
-        <v>76.62260366082046</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D28" t="n">
-        <v>76.62260366082046</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="E28" t="n">
-        <v>76.62260366082046</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F28" t="n">
-        <v>76.62260366082046</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="G28" t="n">
-        <v>76.62260366082046</v>
+        <v>40.38630856220031</v>
       </c>
       <c r="H28" t="n">
-        <v>69.02499817231589</v>
+        <v>40.38630856220031</v>
       </c>
       <c r="I28" t="n">
-        <v>69.02499817231589</v>
+        <v>40.38630856220031</v>
       </c>
       <c r="J28" t="n">
-        <v>19.04175436949831</v>
+        <v>40.38630856220031</v>
       </c>
       <c r="K28" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="L28" t="n">
-        <v>40.56804907792186</v>
+        <v>61.91260327062386</v>
       </c>
       <c r="M28" t="n">
-        <v>89.55662632906336</v>
+        <v>110.9011805217654</v>
       </c>
       <c r="N28" t="n">
-        <v>138.5452035802049</v>
+        <v>159.8897577729069</v>
       </c>
       <c r="O28" t="n">
-        <v>171.721618838782</v>
+        <v>193.066173031484</v>
       </c>
       <c r="P28" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q28" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="R28" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S28" t="n">
-        <v>126.605847463638</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="X28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.62260366082046</v>
+        <v>197.9336454591576</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.94191671200073</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94191671200073</v>
+        <v>147.95040165634</v>
       </c>
       <c r="D29" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="E29" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="F29" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="G29" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="H29" t="n">
         <v>3.958672909183152</v>
@@ -6464,13 +6464,13 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K29" t="n">
-        <v>45.80711538824252</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L29" t="n">
-        <v>94.79569263938403</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M29" t="n">
-        <v>143.7842698905255</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="N29" t="n">
         <v>192.772847141667</v>
@@ -6488,25 +6488,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S29" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="T29" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="U29" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="V29" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W29" t="n">
-        <v>153.9084043176359</v>
+        <v>147.95040165634</v>
       </c>
       <c r="X29" t="n">
-        <v>103.9251605148183</v>
+        <v>147.95040165634</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.94191671200073</v>
+        <v>147.95040165634</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C30" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D30" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E30" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F30" t="n">
         <v>3.958672909183152</v>
@@ -6540,19 +6540,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J30" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K30" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L30" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="M30" t="n">
-        <v>50.96791370573308</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="N30" t="n">
-        <v>99.95649095687459</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O30" t="n">
         <v>148.9450682080161</v>
@@ -6573,19 +6573,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U30" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="V30" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W30" t="n">
-        <v>153.9084043176359</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="X30" t="n">
-        <v>103.9251605148183</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y30" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="31">
@@ -6640,16 +6640,16 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q31" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="R31" t="n">
-        <v>126.605847463638</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="S31" t="n">
-        <v>76.62260366082046</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="T31" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="U31" t="n">
         <v>3.958672909183152</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C32" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D32" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E32" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F32" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H32" t="n">
         <v>3.958672909183152</v>
@@ -6704,7 +6704,7 @@
         <v>3.958672909183152</v>
       </c>
       <c r="L32" t="n">
-        <v>52.94725016032466</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="M32" t="n">
         <v>52.94725016032466</v>
@@ -6716,7 +6716,7 @@
         <v>150.9244046626077</v>
       </c>
       <c r="P32" t="n">
-        <v>197.9336454591576</v>
+        <v>192.772847141667</v>
       </c>
       <c r="Q32" t="n">
         <v>197.9336454591576</v>
@@ -6725,25 +6725,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="X32" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="Y32" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H33" t="n">
         <v>3.958672909183152</v>
@@ -6777,25 +6777,25 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J33" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K33" t="n">
-        <v>59.25387047732157</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L33" t="n">
-        <v>108.2424477284631</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M33" t="n">
-        <v>157.2310249796046</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N33" t="n">
-        <v>197.9336454591576</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O33" t="n">
-        <v>197.9336454591576</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="P33" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="Q33" t="n">
         <v>197.9336454591576</v>
@@ -6810,19 +6810,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U33" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V33" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W33" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X33" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H34" t="n">
         <v>3.958672909183152</v>
@@ -6877,7 +6877,7 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="R34" t="n">
         <v>126.605847463638</v>
@@ -6889,19 +6889,19 @@
         <v>126.605847463638</v>
       </c>
       <c r="U34" t="n">
+        <v>126.605847463638</v>
+      </c>
+      <c r="V34" t="n">
+        <v>126.605847463638</v>
+      </c>
+      <c r="W34" t="n">
         <v>76.62260366082046</v>
       </c>
-      <c r="V34" t="n">
-        <v>26.63935985800288</v>
-      </c>
-      <c r="W34" t="n">
-        <v>3.958672909183152</v>
-      </c>
       <c r="X34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C35" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D35" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E35" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F35" t="n">
         <v>3.958672909183152</v>
@@ -6938,19 +6938,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K35" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L35" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M35" t="n">
-        <v>101.9358274114662</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="N35" t="n">
-        <v>150.9244046626077</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="O35" t="n">
-        <v>192.772847141667</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="P35" t="n">
         <v>192.772847141667</v>
@@ -6965,22 +6965,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T35" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U35" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V35" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W35" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X35" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F36" t="n">
         <v>3.958672909183152</v>
@@ -7017,22 +7017,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K36" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L36" t="n">
-        <v>50.96791370573308</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="M36" t="n">
         <v>99.95649095687459</v>
       </c>
       <c r="N36" t="n">
+        <v>99.95649095687459</v>
+      </c>
+      <c r="O36" t="n">
+        <v>99.95649095687459</v>
+      </c>
+      <c r="P36" t="n">
         <v>148.9450682080161</v>
-      </c>
-      <c r="O36" t="n">
-        <v>197.9336454591576</v>
-      </c>
-      <c r="P36" t="n">
-        <v>197.9336454591576</v>
       </c>
       <c r="Q36" t="n">
         <v>197.9336454591576</v>
@@ -7041,7 +7041,7 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S36" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T36" t="n">
         <v>153.9084043176359</v>
@@ -7053,13 +7053,13 @@
         <v>53.94191671200073</v>
       </c>
       <c r="W36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y36" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="F37" t="n">
-        <v>3.958672909183152</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="G37" t="n">
-        <v>3.958672909183152</v>
+        <v>168.9914857779511</v>
       </c>
       <c r="H37" t="n">
-        <v>3.958672909183152</v>
+        <v>119.0082419751335</v>
       </c>
       <c r="I37" t="n">
-        <v>3.958672909183152</v>
+        <v>69.02499817231589</v>
       </c>
       <c r="J37" t="n">
-        <v>3.958672909183152</v>
+        <v>19.04175436949831</v>
       </c>
       <c r="K37" t="n">
         <v>3.958672909183152</v>
@@ -7132,13 +7132,13 @@
         <v>176.5890912664556</v>
       </c>
       <c r="W37" t="n">
-        <v>153.9084043176359</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="X37" t="n">
-        <v>103.9251605148183</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94191671200073</v>
+        <v>176.5890912664556</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>97.96715785352245</v>
       </c>
       <c r="D38" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F38" t="n">
         <v>3.958672909183152</v>
@@ -7181,13 +7181,13 @@
         <v>52.94725016032466</v>
       </c>
       <c r="M38" t="n">
-        <v>52.94725016032466</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="N38" t="n">
-        <v>101.9358274114662</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="O38" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P38" t="n">
         <v>197.9336454591576</v>
@@ -7196,13 +7196,13 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R38" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="S38" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="T38" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="U38" t="n">
         <v>97.96715785352245</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C39" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D39" t="n">
         <v>3.958672909183152</v>
@@ -7251,25 +7251,25 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J39" t="n">
-        <v>3.958672909183152</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="K39" t="n">
-        <v>3.958672909183152</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="L39" t="n">
-        <v>3.958672909183152</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="M39" t="n">
-        <v>50.96791370573308</v>
+        <v>59.25387047732157</v>
       </c>
       <c r="N39" t="n">
-        <v>99.95649095687459</v>
+        <v>108.2424477284631</v>
       </c>
       <c r="O39" t="n">
         <v>148.9450682080161</v>
       </c>
       <c r="P39" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q39" t="n">
         <v>197.9336454591576</v>
@@ -7278,25 +7278,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S39" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T39" t="n">
-        <v>153.9084043176359</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="U39" t="n">
-        <v>103.9251605148183</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="V39" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="W39" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X39" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.63935985800288</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="C40" t="n">
-        <v>26.63935985800288</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="D40" t="n">
-        <v>26.63935985800288</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="E40" t="n">
-        <v>3.958672909183152</v>
+        <v>75.28647090470272</v>
       </c>
       <c r="F40" t="n">
-        <v>3.958672909183152</v>
+        <v>75.28647090470272</v>
       </c>
       <c r="G40" t="n">
-        <v>3.958672909183152</v>
+        <v>75.28647090470272</v>
       </c>
       <c r="H40" t="n">
-        <v>3.958672909183152</v>
+        <v>75.28647090470272</v>
       </c>
       <c r="I40" t="n">
-        <v>3.958672909183152</v>
+        <v>75.28647090470272</v>
       </c>
       <c r="J40" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="K40" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="L40" t="n">
-        <v>40.56804907792186</v>
+        <v>61.91260327062386</v>
       </c>
       <c r="M40" t="n">
-        <v>89.55662632906336</v>
+        <v>110.9011805217654</v>
       </c>
       <c r="N40" t="n">
-        <v>138.5452035802049</v>
+        <v>159.8897577729069</v>
       </c>
       <c r="O40" t="n">
-        <v>171.721618838782</v>
+        <v>193.066173031484</v>
       </c>
       <c r="P40" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q40" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="R40" t="n">
-        <v>176.5890912664556</v>
+        <v>147.95040165634</v>
       </c>
       <c r="S40" t="n">
-        <v>176.5890912664556</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="T40" t="n">
-        <v>176.5890912664556</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="U40" t="n">
-        <v>176.5890912664556</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="V40" t="n">
-        <v>176.5890912664556</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="W40" t="n">
-        <v>126.605847463638</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="X40" t="n">
-        <v>126.605847463638</v>
+        <v>125.2697147075203</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.62260366082046</v>
+        <v>125.2697147075203</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="C41" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D41" t="n">
-        <v>97.96715785352245</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="E41" t="n">
-        <v>97.96715785352245</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F41" t="n">
         <v>47.98391405070487</v>
@@ -7412,19 +7412,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K41" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L41" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M41" t="n">
-        <v>94.79569263938403</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N41" t="n">
-        <v>94.79569263938403</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="O41" t="n">
-        <v>143.7842698905255</v>
+        <v>192.772847141667</v>
       </c>
       <c r="P41" t="n">
         <v>192.772847141667</v>
@@ -7491,19 +7491,19 @@
         <v>10.26529322618006</v>
       </c>
       <c r="K42" t="n">
-        <v>59.25387047732157</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="L42" t="n">
-        <v>108.2424477284631</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="M42" t="n">
-        <v>157.2310249796046</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="N42" t="n">
-        <v>197.9336454591576</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="O42" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P42" t="n">
         <v>197.9336454591576</v>
@@ -7515,22 +7515,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S42" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="T42" t="n">
         <v>147.95040165634</v>
       </c>
       <c r="U42" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V42" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W42" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X42" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y42" t="n">
         <v>3.958672909183152</v>
@@ -7588,25 +7588,25 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q43" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="R43" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S43" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T43" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U43" t="n">
-        <v>126.605847463638</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V43" t="n">
-        <v>76.62260366082046</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="W43" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X43" t="n">
         <v>3.958672909183152</v>
@@ -9404,7 +9404,7 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L20" t="n">
-        <v>261.0329383879569</v>
+        <v>263.0322681400696</v>
       </c>
       <c r="M20" t="n">
         <v>255.1083302352898</v>
@@ -9413,7 +9413,7 @@
         <v>253.775143892977</v>
       </c>
       <c r="O20" t="n">
-        <v>255.860262215664</v>
+        <v>253.8609324635513</v>
       </c>
       <c r="P20" t="n">
         <v>210.9873633211545</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
-        <v>122.1984598562864</v>
+        <v>171.6818712210759</v>
       </c>
       <c r="M21" t="n">
-        <v>123.047446830095</v>
+        <v>172.5308581948844</v>
       </c>
       <c r="N21" t="n">
-        <v>161.2333711897886</v>
+        <v>152.8637178851538</v>
       </c>
       <c r="O21" t="n">
-        <v>172.1577003002307</v>
+        <v>174.1570300523433</v>
       </c>
       <c r="P21" t="n">
-        <v>169.073331522617</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L23" t="n">
         <v>263.0322681400696</v>
@@ -9647,16 +9647,16 @@
         <v>255.1083302352898</v>
       </c>
       <c r="N23" t="n">
-        <v>253.775143892977</v>
+        <v>251.7758141408643</v>
       </c>
       <c r="O23" t="n">
-        <v>248.6480048701264</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P23" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L24" t="n">
-        <v>122.1984598562864</v>
+        <v>171.6818712210759</v>
       </c>
       <c r="M24" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N24" t="n">
-        <v>161.2333711897886</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O24" t="n">
-        <v>165.7873767477085</v>
+        <v>172.1577003002307</v>
       </c>
       <c r="P24" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q24" t="n">
         <v>179.8495366586465</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L26" t="n">
-        <v>213.5488567752802</v>
+        <v>263.0322681400696</v>
       </c>
       <c r="M26" t="n">
         <v>255.1083302352898</v>
       </c>
       <c r="N26" t="n">
-        <v>246.5628865474395</v>
+        <v>251.7758141408643</v>
       </c>
       <c r="O26" t="n">
-        <v>255.860262215664</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P26" t="n">
-        <v>260.4707746859439</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>125.6774978810001</v>
+        <v>175.1609092457896</v>
       </c>
       <c r="L27" t="n">
-        <v>171.6818712210759</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M27" t="n">
         <v>172.5308581948844</v>
@@ -9966,7 +9966,7 @@
         <v>161.2333711897886</v>
       </c>
       <c r="O27" t="n">
-        <v>172.1577003002307</v>
+        <v>165.7873767477085</v>
       </c>
       <c r="P27" t="n">
         <v>119.5899201578276</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>244.4521178553865</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L29" t="n">
         <v>263.0322681400696</v>
@@ -10121,7 +10121,7 @@
         <v>255.1083302352898</v>
       </c>
       <c r="N29" t="n">
-        <v>253.775143892977</v>
+        <v>246.5628865474394</v>
       </c>
       <c r="O29" t="n">
         <v>206.3768508508745</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
         <v>125.6774978810001</v>
@@ -10197,13 +10197,13 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M30" t="n">
-        <v>164.1612048902496</v>
+        <v>172.5308581948844</v>
       </c>
       <c r="N30" t="n">
         <v>161.2333711897886</v>
       </c>
       <c r="O30" t="n">
-        <v>174.1570300523433</v>
+        <v>172.1577003002307</v>
       </c>
       <c r="P30" t="n">
         <v>119.5899201578276</v>
@@ -10352,10 +10352,10 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L32" t="n">
-        <v>263.0322681400696</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M32" t="n">
-        <v>205.6249188705004</v>
+        <v>255.1083302352898</v>
       </c>
       <c r="N32" t="n">
         <v>253.775143892977</v>
@@ -10364,10 +10364,10 @@
         <v>255.860262215664</v>
       </c>
       <c r="P32" t="n">
-        <v>258.4714449338312</v>
+        <v>253.2585173404063</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
         <v>175.1609092457896</v>
@@ -10434,19 +10434,19 @@
         <v>171.6818712210759</v>
       </c>
       <c r="M33" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N33" t="n">
-        <v>152.8637178851538</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O33" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5899201578276</v>
+        <v>167.0740017705043</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3661252938572</v>
+        <v>179.8495366586465</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L35" t="n">
         <v>263.0322681400696</v>
       </c>
       <c r="M35" t="n">
-        <v>255.1083302352898</v>
+        <v>247.8960728897523</v>
       </c>
       <c r="N35" t="n">
-        <v>253.775143892977</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O35" t="n">
-        <v>248.6480048701264</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P35" t="n">
-        <v>210.9873633211545</v>
+        <v>260.4707746859439</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>125.6774978810001</v>
+        <v>175.1609092457896</v>
       </c>
       <c r="L36" t="n">
         <v>169.6825414689631</v>
       </c>
       <c r="M36" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N36" t="n">
-        <v>161.2333711897886</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O36" t="n">
-        <v>174.1570300523433</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3661252938572</v>
+        <v>179.8495366586465</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,16 +10829,16 @@
         <v>263.0322681400696</v>
       </c>
       <c r="M38" t="n">
-        <v>205.6249188705004</v>
+        <v>253.1090004831771</v>
       </c>
       <c r="N38" t="n">
         <v>253.775143892977</v>
       </c>
       <c r="O38" t="n">
-        <v>253.8609324635513</v>
+        <v>255.860262215664</v>
       </c>
       <c r="P38" t="n">
-        <v>260.4707746859439</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q38" t="n">
         <v>207.1020630664798</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>125.6774978810001</v>
+        <v>175.1609092457896</v>
       </c>
       <c r="L39" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M39" t="n">
-        <v>170.5315284427717</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N39" t="n">
         <v>161.2333711897886</v>
       </c>
       <c r="O39" t="n">
-        <v>174.1570300523433</v>
+        <v>165.7873767477085</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L41" t="n">
         <v>263.0322681400696</v>
       </c>
       <c r="M41" t="n">
-        <v>247.8960728897523</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
-        <v>204.2917325281876</v>
+        <v>253.775143892977</v>
       </c>
       <c r="O41" t="n">
-        <v>255.860262215664</v>
+        <v>248.6480048701264</v>
       </c>
       <c r="P41" t="n">
-        <v>260.4707746859439</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
-        <v>171.6818712210759</v>
+        <v>163.312217916441</v>
       </c>
       <c r="M42" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8637178851538</v>
+        <v>161.2333711897886</v>
       </c>
       <c r="O42" t="n">
-        <v>124.673618687554</v>
+        <v>174.1570300523433</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q42" t="n">
         <v>130.3661252938572</v>
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>357.392634376922</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>371.576959797213</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>97.44029295517282</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
@@ -24023,19 +24023,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>201.8509784240218</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>278.2688471053455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>299.7575573526236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>117.0497722850779</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>123.2250876235263</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>108.1616690906115</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>51.89585517027307</v>
       </c>
       <c r="S21" t="n">
-        <v>120.8005612565437</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>150.3776896073824</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>183.3171757846359</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>208.1099944308131</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7634097338384</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1822727330878</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I22" t="n">
         <v>153.551289182031</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.39042151831705</v>
+        <v>58.41995280377493</v>
       </c>
       <c r="R22" t="n">
-        <v>124.97038729899</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>200.4621317806151</v>
+        <v>173.4326004951572</v>
       </c>
       <c r="T22" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24224,7 +24224,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I23" t="n">
-        <v>205.0481221176458</v>
+        <v>155.5647107528564</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T23" t="n">
-        <v>172.9961344051792</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U23" t="n">
         <v>201.8509784240218</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>299.7575573526236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,22 +24288,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>97.96165419984935</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>95.58580102859447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>87.78477704894989</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H24" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I24" t="n">
-        <v>86.80307722268739</v>
+        <v>43.2180884925809</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
-        <v>126.6989838912266</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
         <v>199.8611009721718</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2895738386881</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>156.1992844125149</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>122.9671679435997</v>
+        <v>95.93763665814184</v>
       </c>
       <c r="G25" t="n">
         <v>167.9278262653587</v>
@@ -24388,7 +24388,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K25" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T25" t="n">
-        <v>227.6757534850358</v>
+        <v>220.1541240514163</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>202.6542319590386</v>
       </c>
       <c r="W25" t="n">
-        <v>237.0395869718016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.2262440242478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24446,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>305.1996302558936</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>338.3453813421553</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.1619485273195</v>
+        <v>365.6785371625301</v>
       </c>
       <c r="H26" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I26" t="n">
         <v>205.0481221176458</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>305.6559799873065</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X26" t="n">
-        <v>320.2476893136796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>336.7545272912642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.0497722850779</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>97.96165419984935</v>
       </c>
       <c r="E27" t="n">
-        <v>114.0600917252945</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>101.4842236632774</v>
       </c>
       <c r="G27" t="n">
         <v>137.2681884137393</v>
@@ -24570,10 +24570,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S27" t="n">
-        <v>120.8005612565437</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T27" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U27" t="n">
         <v>176.4530148774044</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3485688171479</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7634097338384</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>96.95055128177977</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9278262653587</v>
+        <v>160.4061968317392</v>
       </c>
       <c r="H28" t="n">
-        <v>154.1440546642577</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I28" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J28" t="n">
-        <v>39.41084506970898</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
-        <v>173.4326004951572</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T28" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
         <v>286.3155846423218</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>357.392634376922</v>
       </c>
       <c r="G29" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0329468943008</v>
+        <v>294.4479581641943</v>
       </c>
       <c r="I29" t="n">
         <v>205.0481221176458</v>
@@ -24728,7 +24728,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8118405263978</v>
+        <v>156.3284291616084</v>
       </c>
       <c r="T29" t="n">
         <v>222.4795457699687</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>305.6559799873065</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>320.2476893136796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.7545272912642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>123.2250876235263</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>95.58580102859447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.2681884137393</v>
@@ -24813,19 +24813,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>176.4530148774044</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>208.1099944308131</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X30" t="n">
-        <v>156.2895738386881</v>
+        <v>162.187996473371</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>156.1992844125149</v>
       </c>
     </row>
     <row r="31">
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.87383288310646</v>
+        <v>58.41995280377493</v>
       </c>
       <c r="R31" t="n">
         <v>124.97038729899</v>
@@ -24892,7 +24892,7 @@
         <v>178.1923421202464</v>
       </c>
       <c r="U31" t="n">
-        <v>263.8617045629903</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>305.1996302558936</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>371.576959797213</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I32" t="n">
         <v>205.0481221176458</v>
@@ -24965,7 +24965,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S32" t="n">
-        <v>156.3284291616084</v>
+        <v>162.2268517962913</v>
       </c>
       <c r="T32" t="n">
         <v>222.4795457699687</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="33">
@@ -25011,7 +25011,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5079271034444</v>
+        <v>62.02451573865504</v>
       </c>
       <c r="I33" t="n">
         <v>86.80307722268739</v>
@@ -25050,7 +25050,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>176.4530148774044</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V33" t="n">
         <v>183.3171757846359</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.0977070471979</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6656840978772</v>
+        <v>112.1822727330878</v>
       </c>
       <c r="I34" t="n">
         <v>153.551289182031</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.39042151831705</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>174.4537986637794</v>
+        <v>124.97038729899</v>
       </c>
       <c r="S34" t="n">
         <v>222.9160118599466</v>
@@ -25129,16 +25129,16 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8321732775324</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6542319590386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>264.0691182572595</v>
+        <v>237.0395869718016</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2557753097056</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>315.7894804062182</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>363.2910570116049</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.1619485273195</v>
@@ -25205,13 +25205,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
-        <v>172.9961344051792</v>
+        <v>178.8945570398622</v>
       </c>
       <c r="U35" t="n">
         <v>201.8509784240218</v>
       </c>
       <c r="V35" t="n">
-        <v>278.2688471053455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="36">
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>95.58580102859447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.2681884137393</v>
@@ -25281,10 +25281,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S36" t="n">
-        <v>126.6989838912266</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>156.2761122420654</v>
       </c>
       <c r="U36" t="n">
         <v>176.4530148774044</v>
@@ -25293,7 +25293,7 @@
         <v>183.3171757846359</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,22 +25321,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>95.93763665814184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9278262653587</v>
+        <v>160.4061968317392</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6656840978772</v>
+        <v>112.1822727330878</v>
       </c>
       <c r="I37" t="n">
-        <v>153.551289182031</v>
+        <v>104.0678778172416</v>
       </c>
       <c r="J37" t="n">
-        <v>88.89425643449839</v>
+        <v>39.41084506970898</v>
       </c>
       <c r="K37" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0691182572594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>176.2262440242478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25394,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>311.0980528905765</v>
       </c>
       <c r="E38" t="n">
-        <v>338.3453813421553</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F38" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.1619485273195</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.0252816852793</v>
+        <v>91.54187032048991</v>
       </c>
       <c r="S38" t="n">
         <v>205.8118405263978</v>
@@ -25445,7 +25445,7 @@
         <v>172.9961344051792</v>
       </c>
       <c r="U38" t="n">
-        <v>201.8509784240218</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>123.2250876235263</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>97.96165419984935</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25518,16 +25518,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>170.2839726213331</v>
+        <v>126.6989838912266</v>
       </c>
       <c r="T39" t="n">
-        <v>156.2761122420654</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U39" t="n">
         <v>176.4530148774044</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3485688171479</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>123.9800825672376</v>
+        <v>96.95055128177977</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25570,7 +25570,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J40" t="n">
-        <v>88.89425643449839</v>
+        <v>39.41084506970898</v>
       </c>
       <c r="K40" t="n">
         <v>14.93225064571201</v>
@@ -25594,10 +25594,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>174.4537986637794</v>
+        <v>124.97038729899</v>
       </c>
       <c r="S40" t="n">
-        <v>222.9160118599466</v>
+        <v>200.4621317806151</v>
       </c>
       <c r="T40" t="n">
         <v>227.6757534850358</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>237.0395869718016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C41" t="n">
         <v>315.7894804062182</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>371.576959797213</v>
@@ -25755,25 +25755,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
-        <v>170.2839726213331</v>
+        <v>120.8005612565437</v>
       </c>
       <c r="T42" t="n">
-        <v>150.3776896073824</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>176.4530148774044</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>202.2115717961302</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2895738386881</v>
       </c>
       <c r="Y42" t="n">
-        <v>162.0977070471979</v>
+        <v>156.1992844125149</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.87383288310646</v>
+        <v>58.41995280377493</v>
       </c>
       <c r="R43" t="n">
         <v>174.4537986637794</v>
@@ -25849,7 +25849,7 @@
         <v>237.0395869718016</v>
       </c>
       <c r="X43" t="n">
-        <v>203.2557753097056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090764</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>379113.5331090764</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>379113.5331090766</v>
+        <v>379113.5331090765</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379113.5331090767</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
         <v>80630.55414858478</v>
@@ -26329,28 +26329,28 @@
         <v>82279.54400800072</v>
       </c>
       <c r="H2" t="n">
-        <v>92603.29247978375</v>
+        <v>92603.29247978372</v>
       </c>
       <c r="I2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978376</v>
       </c>
       <c r="J2" t="n">
         <v>92603.29247978375</v>
       </c>
       <c r="K2" t="n">
+        <v>92603.29247978375</v>
+      </c>
+      <c r="L2" t="n">
+        <v>92603.29247978375</v>
+      </c>
+      <c r="M2" t="n">
+        <v>92603.29247978375</v>
+      </c>
+      <c r="N2" t="n">
         <v>92603.29247978373</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>92603.29247978373</v>
-      </c>
-      <c r="M2" t="n">
-        <v>92603.29247978373</v>
-      </c>
-      <c r="N2" t="n">
-        <v>92603.29247978372</v>
-      </c>
-      <c r="O2" t="n">
-        <v>92603.29247978375</v>
       </c>
       <c r="P2" t="n">
         <v>82279.54400800072</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>34816.45020865287</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="F4" t="n">
-        <v>34816.45020865287</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="G4" t="n">
-        <v>34816.45020865287</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="H4" t="n">
-        <v>39797.40133700968</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="I4" t="n">
-        <v>39797.40133700969</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="J4" t="n">
-        <v>39797.40133700968</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="K4" t="n">
-        <v>39797.40133700969</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="L4" t="n">
-        <v>39797.40133700968</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="M4" t="n">
-        <v>39797.40133700968</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="N4" t="n">
-        <v>39797.40133700968</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="O4" t="n">
-        <v>39797.40133700969</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="P4" t="n">
-        <v>34816.45020865287</v>
+        <v>34652.55823770496</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9197.399588228764</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="C6" t="n">
-        <v>9197.399588228749</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="D6" t="n">
-        <v>9197.399588228778</v>
+        <v>9375.36221257857</v>
       </c>
       <c r="E6" t="n">
-        <v>18563.44439014348</v>
+        <v>18727.33636109139</v>
       </c>
       <c r="F6" t="n">
-        <v>46699.63031567093</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="G6" t="n">
-        <v>46699.63031567093</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="H6" t="n">
-        <v>35682.76651119548</v>
+        <v>35869.90704880319</v>
       </c>
       <c r="I6" t="n">
-        <v>49033.83624811791</v>
+        <v>49220.9767857257</v>
       </c>
       <c r="J6" t="n">
-        <v>49033.83624811794</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="K6" t="n">
-        <v>49033.83624811792</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="L6" t="n">
-        <v>49033.83624811793</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="M6" t="n">
-        <v>49033.83624811793</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="N6" t="n">
-        <v>49033.83624811791</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="O6" t="n">
-        <v>49033.83624811794</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="P6" t="n">
-        <v>46699.63031567093</v>
+        <v>46863.52228661883</v>
       </c>
     </row>
   </sheetData>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.4840816126767</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M20" t="n">
         <v>49.4834113647894</v>
@@ -36133,7 +36133,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="O20" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N21" t="n">
+        <v>41.11375806015457</v>
+      </c>
+      <c r="O21" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="O21" t="n">
-        <v>47.4840816126767</v>
-      </c>
       <c r="P21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L23" t="n">
         <v>49.4834113647894</v>
@@ -36367,16 +36367,16 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N23" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="O23" t="n">
-        <v>42.27115401925186</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>47.4840816126767</v>
+      </c>
+      <c r="P24" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N24" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="O24" t="n">
-        <v>41.11375806015457</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>49.4834113647894</v>
@@ -36595,25 +36595,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M26" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N26" t="n">
-        <v>42.27115401925189</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="O26" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L27" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>49.4834113647894</v>
@@ -36686,7 +36686,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="O27" t="n">
-        <v>47.4840816126767</v>
+        <v>41.11375806015459</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>42.27115401925189</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L29" t="n">
         <v>49.4834113647894</v>
@@ -36841,7 +36841,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N29" t="n">
-        <v>49.4834113647894</v>
+        <v>42.27115401925186</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>41.11375806015457</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N30" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="O30" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>49.4834113647894</v>
@@ -37084,10 +37084,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="P32" t="n">
-        <v>47.4840816126767</v>
+        <v>42.27115401925186</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>49.4834113647894</v>
@@ -37154,19 +37154,19 @@
         <v>49.4834113647894</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>47.4840816126767</v>
+      </c>
+      <c r="Q33" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N33" t="n">
-        <v>41.11375806015459</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L35" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="M35" t="n">
+        <v>42.27115401925189</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N35" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="O35" t="n">
-        <v>42.27115401925186</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>5.212927593424824</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L36" t="n">
         <v>47.4840816126767</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="O36" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>49.4834113647894</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="N38" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="O38" t="n">
-        <v>47.4840816126767</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="P38" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>47.4840816126767</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="O39" t="n">
+        <v>41.11375806015457</v>
+      </c>
+      <c r="P39" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L41" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="M41" t="n">
-        <v>42.27115401925189</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O41" t="n">
-        <v>49.4834113647894</v>
+        <v>42.27115401925186</v>
       </c>
       <c r="P41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>5.212927593424824</v>
@@ -37859,22 +37859,22 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>41.11375806015457</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="L42" t="n">
+      <c r="O42" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="N42" t="n">
-        <v>41.11375806015459</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
